--- a/Tests/TestDescriptionV2.xlsx
+++ b/Tests/TestDescriptionV2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maria\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dnlfr\Desktop\Formação java\Projecto 2 DomEm\documentation\Tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E22834-17FC-42BC-B2C2-9AE2DD2083A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC929119-9269-4594-8544-C0F80DAB4BA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="319">
   <si>
     <t>Use Cases</t>
   </si>
@@ -1043,6 +1043,30 @@
   </si>
   <si>
     <t>File with statements</t>
+  </si>
+  <si>
+    <t>14. ACID transaction</t>
+  </si>
+  <si>
+    <t>14.</t>
+  </si>
+  <si>
+    <t>Make a transaction</t>
+  </si>
+  <si>
+    <t>Create failure during the process od transaction</t>
+  </si>
+  <si>
+    <t>IBAN: PT50123456789112345678921
+Amount: 250,00</t>
+  </si>
+  <si>
+    <t>Transaction denied</t>
+  </si>
+  <si>
+    <t>1) Make a transaction with attached data
+2) Creator failure situation during transaction
+3) Check if transaction did a rollback</t>
   </si>
 </sst>
 </file>
@@ -1053,7 +1077,7 @@
     <numFmt numFmtId="164" formatCode="m\.d"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ [$€-1]"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1104,6 +1128,18 @@
       <sz val="11"/>
       <color rgb="FF202124"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1288,7 +1324,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1381,27 +1417,6 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1411,26 +1426,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1443,9 +1443,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1467,6 +1464,57 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1685,8 +1733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A76" sqref="A76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -1732,10 +1780,10 @@
       <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="40"/>
+      <c r="K1" s="33"/>
     </row>
     <row r="2" spans="1:34" ht="14.25" customHeight="1">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="58" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="4">
@@ -1761,7 +1809,7 @@
       </c>
       <c r="I2" s="8"/>
       <c r="J2" s="9"/>
-      <c r="K2" s="41"/>
+      <c r="K2" s="34"/>
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
       <c r="O2" s="10"/>
@@ -1786,7 +1834,7 @@
       <c r="AH2" s="10"/>
     </row>
     <row r="3" spans="1:34" ht="14.25" customHeight="1">
-      <c r="A3" s="42"/>
+      <c r="A3" s="55"/>
       <c r="B3" s="4">
         <v>44563</v>
       </c>
@@ -1810,7 +1858,7 @@
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="9"/>
-      <c r="K3" s="41"/>
+      <c r="K3" s="34"/>
       <c r="M3" s="10"/>
       <c r="N3" s="10"/>
       <c r="O3" s="10"/>
@@ -1835,7 +1883,7 @@
       <c r="AH3" s="10"/>
     </row>
     <row r="4" spans="1:34" ht="14.25" customHeight="1">
-      <c r="A4" s="42"/>
+      <c r="A4" s="55"/>
       <c r="B4" s="12">
         <v>44564</v>
       </c>
@@ -1859,7 +1907,7 @@
       </c>
       <c r="I4" s="8"/>
       <c r="J4" s="9"/>
-      <c r="K4" s="41"/>
+      <c r="K4" s="34"/>
       <c r="M4" s="10"/>
       <c r="N4" s="10"/>
       <c r="O4" s="10"/>
@@ -1884,7 +1932,7 @@
       <c r="AH4" s="10"/>
     </row>
     <row r="5" spans="1:34" ht="14.25" customHeight="1">
-      <c r="A5" s="42"/>
+      <c r="A5" s="55"/>
       <c r="B5" s="4">
         <v>44565</v>
       </c>
@@ -1908,7 +1956,7 @@
       </c>
       <c r="I5" s="8"/>
       <c r="J5" s="9"/>
-      <c r="K5" s="41"/>
+      <c r="K5" s="34"/>
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
       <c r="O5" s="10"/>
@@ -1933,7 +1981,7 @@
       <c r="AH5" s="10"/>
     </row>
     <row r="6" spans="1:34" ht="14.25" customHeight="1">
-      <c r="A6" s="42"/>
+      <c r="A6" s="55"/>
       <c r="B6" s="4">
         <v>44566</v>
       </c>
@@ -1957,7 +2005,7 @@
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="9"/>
-      <c r="K6" s="41"/>
+      <c r="K6" s="34"/>
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
       <c r="O6" s="10"/>
@@ -1982,7 +2030,7 @@
       <c r="AH6" s="10"/>
     </row>
     <row r="7" spans="1:34" ht="14.25" customHeight="1">
-      <c r="A7" s="42"/>
+      <c r="A7" s="55"/>
       <c r="B7" s="4">
         <v>44567</v>
       </c>
@@ -2006,7 +2054,7 @@
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="9"/>
-      <c r="K7" s="41"/>
+      <c r="K7" s="34"/>
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
       <c r="O7" s="10"/>
@@ -2031,8 +2079,8 @@
       <c r="AH7" s="10"/>
     </row>
     <row r="8" spans="1:34" ht="14.25" customHeight="1">
-      <c r="A8" s="42"/>
-      <c r="B8" s="43">
+      <c r="A8" s="55"/>
+      <c r="B8" s="35">
         <v>44568</v>
       </c>
       <c r="C8" s="11" t="s">
@@ -2055,7 +2103,7 @@
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="9"/>
-      <c r="K8" s="41"/>
+      <c r="K8" s="34"/>
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
       <c r="O8" s="10"/>
@@ -2080,7 +2128,7 @@
       <c r="AH8" s="10"/>
     </row>
     <row r="9" spans="1:34" ht="14.25" customHeight="1">
-      <c r="A9" s="42"/>
+      <c r="A9" s="55"/>
       <c r="B9" s="4">
         <v>44569</v>
       </c>
@@ -2104,7 +2152,7 @@
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="9"/>
-      <c r="K9" s="41"/>
+      <c r="K9" s="34"/>
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
       <c r="O9" s="10"/>
@@ -2129,7 +2177,7 @@
       <c r="AH9" s="10"/>
     </row>
     <row r="10" spans="1:34" ht="14.25" customHeight="1">
-      <c r="A10" s="42"/>
+      <c r="A10" s="55"/>
       <c r="B10" s="4">
         <v>44570</v>
       </c>
@@ -2153,7 +2201,7 @@
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="9"/>
-      <c r="K10" s="41"/>
+      <c r="K10" s="34"/>
       <c r="M10" s="10"/>
       <c r="N10" s="10"/>
       <c r="O10" s="10"/>
@@ -2178,7 +2226,7 @@
       <c r="AH10" s="10"/>
     </row>
     <row r="11" spans="1:34" ht="14.25" customHeight="1">
-      <c r="A11" s="42"/>
+      <c r="A11" s="55"/>
       <c r="B11" s="4">
         <v>44571</v>
       </c>
@@ -2202,7 +2250,7 @@
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="9"/>
-      <c r="K11" s="41"/>
+      <c r="K11" s="34"/>
       <c r="M11" s="10"/>
       <c r="N11" s="10"/>
       <c r="O11" s="10"/>
@@ -2227,7 +2275,7 @@
       <c r="AH11" s="10"/>
     </row>
     <row r="12" spans="1:34" ht="14.25" customHeight="1">
-      <c r="A12" s="42"/>
+      <c r="A12" s="55"/>
       <c r="B12" s="4">
         <v>44572</v>
       </c>
@@ -2251,7 +2299,7 @@
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="9"/>
-      <c r="K12" s="41"/>
+      <c r="K12" s="34"/>
       <c r="M12" s="10"/>
       <c r="N12" s="10"/>
       <c r="O12" s="10"/>
@@ -2276,7 +2324,7 @@
       <c r="AH12" s="10"/>
     </row>
     <row r="13" spans="1:34" ht="14.25" customHeight="1">
-      <c r="A13" s="42"/>
+      <c r="A13" s="55"/>
       <c r="B13" s="4">
         <v>44573</v>
       </c>
@@ -2300,7 +2348,7 @@
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="13"/>
-      <c r="K13" s="41"/>
+      <c r="K13" s="34"/>
       <c r="M13" s="10"/>
       <c r="N13" s="10"/>
       <c r="O13" s="10"/>
@@ -2325,7 +2373,7 @@
       <c r="AH13" s="10"/>
     </row>
     <row r="14" spans="1:34" ht="14.25" customHeight="1">
-      <c r="A14" s="42"/>
+      <c r="A14" s="55"/>
       <c r="B14" s="4">
         <v>44574</v>
       </c>
@@ -2349,7 +2397,7 @@
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="13"/>
-      <c r="K14" s="41"/>
+      <c r="K14" s="34"/>
       <c r="M14" s="10"/>
       <c r="N14" s="10"/>
       <c r="O14" s="10"/>
@@ -2374,8 +2422,8 @@
       <c r="AH14" s="10"/>
     </row>
     <row r="15" spans="1:34" ht="14.25" customHeight="1">
-      <c r="A15" s="42"/>
-      <c r="B15" s="43">
+      <c r="A15" s="55"/>
+      <c r="B15" s="35">
         <v>44575</v>
       </c>
       <c r="C15" s="11" t="s">
@@ -2398,7 +2446,7 @@
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="13"/>
-      <c r="K15" s="41"/>
+      <c r="K15" s="34"/>
       <c r="M15" s="10"/>
       <c r="N15" s="10"/>
       <c r="O15" s="10"/>
@@ -2423,7 +2471,7 @@
       <c r="AH15" s="10"/>
     </row>
     <row r="16" spans="1:34" ht="14.25" customHeight="1">
-      <c r="A16" s="42"/>
+      <c r="A16" s="55"/>
       <c r="B16" s="4">
         <v>44576</v>
       </c>
@@ -2447,7 +2495,7 @@
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="13"/>
-      <c r="K16" s="41"/>
+      <c r="K16" s="34"/>
       <c r="M16" s="10"/>
       <c r="N16" s="10"/>
       <c r="O16" s="10"/>
@@ -2472,7 +2520,7 @@
       <c r="AH16" s="10"/>
     </row>
     <row r="17" spans="1:34" ht="14.25" customHeight="1">
-      <c r="A17" s="42"/>
+      <c r="A17" s="55"/>
       <c r="B17" s="4">
         <v>44577</v>
       </c>
@@ -2496,7 +2544,7 @@
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="9"/>
-      <c r="K17" s="41"/>
+      <c r="K17" s="34"/>
       <c r="M17" s="10"/>
       <c r="N17" s="10"/>
       <c r="O17" s="10"/>
@@ -2521,7 +2569,7 @@
       <c r="AH17" s="10"/>
     </row>
     <row r="18" spans="1:34" ht="14.25" customHeight="1">
-      <c r="A18" s="42"/>
+      <c r="A18" s="55"/>
       <c r="B18" s="4">
         <v>44578</v>
       </c>
@@ -2545,7 +2593,7 @@
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="13"/>
-      <c r="K18" s="41"/>
+      <c r="K18" s="34"/>
       <c r="M18" s="10"/>
       <c r="N18" s="10"/>
       <c r="O18" s="10"/>
@@ -2570,7 +2618,7 @@
       <c r="AH18" s="10"/>
     </row>
     <row r="19" spans="1:34" ht="14.25" customHeight="1">
-      <c r="A19" s="42"/>
+      <c r="A19" s="55"/>
       <c r="B19" s="4">
         <v>44579</v>
       </c>
@@ -2594,7 +2642,7 @@
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="9"/>
-      <c r="K19" s="41"/>
+      <c r="K19" s="34"/>
       <c r="M19" s="10"/>
       <c r="N19" s="10"/>
       <c r="O19" s="10"/>
@@ -2619,7 +2667,7 @@
       <c r="AH19" s="10"/>
     </row>
     <row r="20" spans="1:34" ht="14.25" customHeight="1">
-      <c r="A20" s="42"/>
+      <c r="A20" s="55"/>
       <c r="B20" s="4">
         <v>44580</v>
       </c>
@@ -2643,7 +2691,7 @@
       </c>
       <c r="I20" s="14"/>
       <c r="J20" s="9"/>
-      <c r="K20" s="41"/>
+      <c r="K20" s="34"/>
       <c r="M20" s="10"/>
       <c r="N20" s="10"/>
       <c r="O20" s="10"/>
@@ -2668,7 +2716,7 @@
       <c r="AH20" s="10"/>
     </row>
     <row r="21" spans="1:34" ht="14.25" customHeight="1">
-      <c r="A21" s="42"/>
+      <c r="A21" s="55"/>
       <c r="B21" s="4">
         <v>44581</v>
       </c>
@@ -2692,7 +2740,7 @@
       </c>
       <c r="I21" s="14"/>
       <c r="J21" s="9"/>
-      <c r="K21" s="41"/>
+      <c r="K21" s="34"/>
       <c r="M21" s="10"/>
       <c r="N21" s="10"/>
       <c r="O21" s="10"/>
@@ -2717,7 +2765,7 @@
       <c r="AH21" s="10"/>
     </row>
     <row r="22" spans="1:34" ht="14.25" customHeight="1">
-      <c r="A22" s="42"/>
+      <c r="A22" s="55"/>
       <c r="B22" s="4">
         <v>44582</v>
       </c>
@@ -2741,7 +2789,7 @@
       </c>
       <c r="I22" s="14"/>
       <c r="J22" s="9"/>
-      <c r="K22" s="41"/>
+      <c r="K22" s="34"/>
       <c r="M22" s="10"/>
       <c r="N22" s="10"/>
       <c r="O22" s="10"/>
@@ -2766,7 +2814,7 @@
       <c r="AH22" s="10"/>
     </row>
     <row r="23" spans="1:34" ht="14.25" customHeight="1">
-      <c r="A23" s="42"/>
+      <c r="A23" s="55"/>
       <c r="B23" s="4">
         <v>44583</v>
       </c>
@@ -2790,7 +2838,7 @@
       </c>
       <c r="I23" s="14"/>
       <c r="J23" s="9"/>
-      <c r="K23" s="41"/>
+      <c r="K23" s="34"/>
       <c r="M23" s="10"/>
       <c r="N23" s="10"/>
       <c r="O23" s="10"/>
@@ -2815,7 +2863,7 @@
       <c r="AH23" s="10"/>
     </row>
     <row r="24" spans="1:34" ht="14.25" customHeight="1">
-      <c r="A24" s="42"/>
+      <c r="A24" s="55"/>
       <c r="B24" s="4">
         <v>44584</v>
       </c>
@@ -2839,7 +2887,7 @@
       </c>
       <c r="I24" s="14"/>
       <c r="J24" s="9"/>
-      <c r="K24" s="41"/>
+      <c r="K24" s="34"/>
       <c r="M24" s="10"/>
       <c r="N24" s="10"/>
       <c r="O24" s="10"/>
@@ -2864,7 +2912,7 @@
       <c r="AH24" s="10"/>
     </row>
     <row r="25" spans="1:34" ht="14.25" customHeight="1">
-      <c r="A25" s="42"/>
+      <c r="A25" s="55"/>
       <c r="B25" s="4">
         <v>44585</v>
       </c>
@@ -2888,7 +2936,7 @@
       </c>
       <c r="I25" s="14"/>
       <c r="J25" s="9"/>
-      <c r="K25" s="41"/>
+      <c r="K25" s="34"/>
       <c r="M25" s="10"/>
       <c r="N25" s="10"/>
       <c r="O25" s="10"/>
@@ -2913,7 +2961,7 @@
       <c r="AH25" s="10"/>
     </row>
     <row r="26" spans="1:34" ht="14.25" customHeight="1">
-      <c r="A26" s="42"/>
+      <c r="A26" s="55"/>
       <c r="B26" s="4">
         <v>44586</v>
       </c>
@@ -2937,7 +2985,7 @@
       </c>
       <c r="I26" s="14"/>
       <c r="J26" s="9"/>
-      <c r="K26" s="41"/>
+      <c r="K26" s="34"/>
       <c r="M26" s="10"/>
       <c r="N26" s="10"/>
       <c r="O26" s="10"/>
@@ -2962,7 +3010,7 @@
       <c r="AH26" s="10"/>
     </row>
     <row r="27" spans="1:34" ht="14.25" customHeight="1">
-      <c r="A27" s="42"/>
+      <c r="A27" s="55"/>
       <c r="B27" s="4">
         <v>44587</v>
       </c>
@@ -2986,7 +3034,7 @@
       </c>
       <c r="I27" s="15"/>
       <c r="J27" s="13"/>
-      <c r="K27" s="41"/>
+      <c r="K27" s="34"/>
       <c r="M27" s="10"/>
       <c r="N27" s="10"/>
       <c r="O27" s="10"/>
@@ -3011,7 +3059,7 @@
       <c r="AH27" s="10"/>
     </row>
     <row r="28" spans="1:34" ht="14.25" customHeight="1">
-      <c r="A28" s="42"/>
+      <c r="A28" s="55"/>
       <c r="B28" s="4">
         <v>44588</v>
       </c>
@@ -3035,7 +3083,7 @@
       </c>
       <c r="I28" s="15"/>
       <c r="J28" s="13"/>
-      <c r="K28" s="41"/>
+      <c r="K28" s="34"/>
       <c r="M28" s="10"/>
       <c r="N28" s="10"/>
       <c r="O28" s="10"/>
@@ -3060,7 +3108,7 @@
       <c r="AH28" s="10"/>
     </row>
     <row r="29" spans="1:34" ht="14.25" customHeight="1">
-      <c r="A29" s="42"/>
+      <c r="A29" s="55"/>
       <c r="B29" s="4">
         <v>44589</v>
       </c>
@@ -3084,7 +3132,7 @@
       </c>
       <c r="I29" s="15"/>
       <c r="J29" s="13"/>
-      <c r="K29" s="41"/>
+      <c r="K29" s="34"/>
       <c r="M29" s="10"/>
       <c r="N29" s="10"/>
       <c r="O29" s="10"/>
@@ -3109,7 +3157,7 @@
       <c r="AH29" s="10"/>
     </row>
     <row r="30" spans="1:34" ht="14.25" customHeight="1">
-      <c r="A30" s="42"/>
+      <c r="A30" s="55"/>
       <c r="B30" s="4">
         <v>44590</v>
       </c>
@@ -3127,7 +3175,7 @@
       <c r="H30" s="6"/>
       <c r="I30" s="15"/>
       <c r="J30" s="13"/>
-      <c r="K30" s="41"/>
+      <c r="K30" s="34"/>
       <c r="M30" s="10"/>
       <c r="N30" s="10"/>
       <c r="O30" s="10"/>
@@ -3152,7 +3200,7 @@
       <c r="AH30" s="10"/>
     </row>
     <row r="31" spans="1:34" ht="14.25" customHeight="1">
-      <c r="A31" s="42"/>
+      <c r="A31" s="55"/>
       <c r="B31" s="4">
         <v>44591</v>
       </c>
@@ -3176,7 +3224,7 @@
       </c>
       <c r="I31" s="14"/>
       <c r="J31" s="9"/>
-      <c r="K31" s="41"/>
+      <c r="K31" s="34"/>
       <c r="M31" s="10"/>
       <c r="N31" s="10"/>
       <c r="O31" s="10"/>
@@ -3201,7 +3249,7 @@
       <c r="AH31" s="10"/>
     </row>
     <row r="32" spans="1:34" ht="14.25" customHeight="1">
-      <c r="A32" s="42"/>
+      <c r="A32" s="55"/>
       <c r="B32" s="4">
         <v>44592</v>
       </c>
@@ -3225,7 +3273,7 @@
       </c>
       <c r="I32" s="15"/>
       <c r="J32" s="13"/>
-      <c r="K32" s="41"/>
+      <c r="K32" s="34"/>
       <c r="M32" s="10"/>
       <c r="N32" s="10"/>
       <c r="O32" s="10"/>
@@ -3250,7 +3298,7 @@
       <c r="AH32" s="10"/>
     </row>
     <row r="33" spans="1:34" ht="14.25" customHeight="1">
-      <c r="A33" s="34" t="s">
+      <c r="A33" s="58" t="s">
         <v>118</v>
       </c>
       <c r="B33" s="4">
@@ -3265,7 +3313,7 @@
       <c r="E33" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="F33" s="44" t="s">
+      <c r="F33" s="36" t="s">
         <v>122</v>
       </c>
       <c r="G33" s="7" t="s">
@@ -3276,7 +3324,7 @@
       </c>
       <c r="I33" s="14"/>
       <c r="J33" s="9"/>
-      <c r="K33" s="41"/>
+      <c r="K33" s="34"/>
       <c r="M33" s="10"/>
       <c r="N33" s="10"/>
       <c r="O33" s="10"/>
@@ -3301,7 +3349,7 @@
       <c r="AH33" s="10"/>
     </row>
     <row r="34" spans="1:34" ht="14.25" customHeight="1">
-      <c r="A34" s="42"/>
+      <c r="A34" s="55"/>
       <c r="B34" s="4">
         <v>44594</v>
       </c>
@@ -3325,7 +3373,7 @@
       </c>
       <c r="I34" s="14"/>
       <c r="J34" s="9"/>
-      <c r="K34" s="41"/>
+      <c r="K34" s="34"/>
       <c r="M34" s="10"/>
       <c r="N34" s="10"/>
       <c r="O34" s="10"/>
@@ -3350,7 +3398,7 @@
       <c r="AH34" s="10"/>
     </row>
     <row r="35" spans="1:34" ht="14.25" customHeight="1">
-      <c r="A35" s="45"/>
+      <c r="A35" s="56"/>
       <c r="B35" s="4">
         <v>44595</v>
       </c>
@@ -3374,7 +3422,7 @@
       </c>
       <c r="I35" s="15"/>
       <c r="J35" s="13"/>
-      <c r="K35" s="41"/>
+      <c r="K35" s="34"/>
       <c r="M35" s="10"/>
       <c r="N35" s="10"/>
       <c r="O35" s="10"/>
@@ -3399,7 +3447,7 @@
       <c r="AH35" s="10"/>
     </row>
     <row r="36" spans="1:34" ht="14.25" customHeight="1">
-      <c r="A36" s="35" t="s">
+      <c r="A36" s="52" t="s">
         <v>130</v>
       </c>
       <c r="B36" s="4">
@@ -3411,7 +3459,7 @@
       <c r="D36" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="E36" s="56" t="s">
+      <c r="E36" s="43" t="s">
         <v>133</v>
       </c>
       <c r="F36" s="6" t="s">
@@ -3425,7 +3473,7 @@
       </c>
       <c r="I36" s="14"/>
       <c r="J36" s="9"/>
-      <c r="K36" s="41"/>
+      <c r="K36" s="34"/>
       <c r="M36" s="10"/>
       <c r="N36" s="10"/>
       <c r="O36" s="10"/>
@@ -3450,7 +3498,7 @@
       <c r="AH36" s="10"/>
     </row>
     <row r="37" spans="1:34" ht="14.25" customHeight="1">
-      <c r="A37" s="46"/>
+      <c r="A37" s="49"/>
       <c r="B37" s="4">
         <v>44622</v>
       </c>
@@ -3460,7 +3508,7 @@
       <c r="D37" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="E37" s="56" t="s">
+      <c r="E37" s="43" t="s">
         <v>133</v>
       </c>
       <c r="F37" s="6" t="s">
@@ -3474,7 +3522,7 @@
       </c>
       <c r="I37" s="14"/>
       <c r="J37" s="9"/>
-      <c r="K37" s="41"/>
+      <c r="K37" s="34"/>
       <c r="M37" s="10"/>
       <c r="N37" s="10"/>
       <c r="O37" s="10"/>
@@ -3499,15 +3547,15 @@
       <c r="AH37" s="10"/>
     </row>
     <row r="38" spans="1:34" ht="14.25" customHeight="1">
-      <c r="A38" s="46"/>
-      <c r="B38" s="36" t="s">
+      <c r="A38" s="49"/>
+      <c r="B38" s="48" t="s">
         <v>138</v>
       </c>
-      <c r="C38" s="46"/>
+      <c r="C38" s="49"/>
       <c r="D38" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="E38" s="56" t="s">
+      <c r="E38" s="43" t="s">
         <v>140</v>
       </c>
       <c r="F38" s="6" t="s">
@@ -3521,7 +3569,7 @@
       </c>
       <c r="I38" s="14"/>
       <c r="J38" s="9"/>
-      <c r="K38" s="41"/>
+      <c r="K38" s="34"/>
       <c r="M38" s="10"/>
       <c r="N38" s="10"/>
       <c r="O38" s="10"/>
@@ -3546,13 +3594,13 @@
       <c r="AH38" s="10"/>
     </row>
     <row r="39" spans="1:34" ht="14.25" customHeight="1">
-      <c r="A39" s="47"/>
-      <c r="B39" s="48"/>
-      <c r="C39" s="47"/>
+      <c r="A39" s="51"/>
+      <c r="B39" s="50"/>
+      <c r="C39" s="51"/>
       <c r="D39" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="E39" s="56" t="s">
+      <c r="E39" s="43" t="s">
         <v>140</v>
       </c>
       <c r="F39" s="6" t="s">
@@ -3566,7 +3614,7 @@
       </c>
       <c r="I39" s="14"/>
       <c r="J39" s="9"/>
-      <c r="K39" s="41"/>
+      <c r="K39" s="34"/>
       <c r="L39" s="10"/>
       <c r="M39" s="10"/>
       <c r="N39" s="10"/>
@@ -3592,7 +3640,7 @@
       <c r="AH39" s="10"/>
     </row>
     <row r="40" spans="1:34" ht="14.25" customHeight="1">
-      <c r="A40" s="35" t="s">
+      <c r="A40" s="52" t="s">
         <v>146</v>
       </c>
       <c r="B40" s="4">
@@ -3604,21 +3652,21 @@
       <c r="D40" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="E40" s="58" t="s">
+      <c r="E40" s="45" t="s">
         <v>149</v>
       </c>
       <c r="F40" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="G40" s="37" t="s">
+      <c r="G40" s="53" t="s">
         <v>151</v>
       </c>
-      <c r="H40" s="38" t="s">
+      <c r="H40" s="54" t="s">
         <v>23</v>
       </c>
       <c r="I40" s="15"/>
       <c r="J40" s="13"/>
-      <c r="K40" s="41"/>
+      <c r="K40" s="34"/>
       <c r="L40" s="10"/>
       <c r="M40" s="10"/>
       <c r="N40" s="10"/>
@@ -3644,7 +3692,7 @@
       <c r="AH40" s="10"/>
     </row>
     <row r="41" spans="1:34" ht="14.25" customHeight="1">
-      <c r="A41" s="46"/>
+      <c r="A41" s="49"/>
       <c r="B41" s="4">
         <v>44653</v>
       </c>
@@ -3654,17 +3702,17 @@
       <c r="D41" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="E41" s="57" t="s">
+      <c r="E41" s="44" t="s">
         <v>154</v>
       </c>
       <c r="F41" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="G41" s="46"/>
-      <c r="H41" s="42"/>
+      <c r="G41" s="49"/>
+      <c r="H41" s="55"/>
       <c r="I41" s="13"/>
       <c r="J41" s="13"/>
-      <c r="K41" s="41"/>
+      <c r="K41" s="34"/>
       <c r="L41" s="10"/>
       <c r="M41" s="10"/>
       <c r="N41" s="10"/>
@@ -3690,27 +3738,27 @@
       <c r="AH41" s="10"/>
     </row>
     <row r="42" spans="1:34" ht="14.25" customHeight="1">
-      <c r="A42" s="46"/>
+      <c r="A42" s="49"/>
       <c r="B42" s="4">
         <v>44654</v>
       </c>
       <c r="C42" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="D42" s="49" t="s">
+      <c r="D42" s="37" t="s">
         <v>157</v>
       </c>
-      <c r="E42" s="57" t="s">
+      <c r="E42" s="44" t="s">
         <v>158</v>
       </c>
       <c r="F42" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="G42" s="46"/>
-      <c r="H42" s="42"/>
+      <c r="G42" s="49"/>
+      <c r="H42" s="55"/>
       <c r="I42" s="13"/>
       <c r="J42" s="13"/>
-      <c r="K42" s="41"/>
+      <c r="K42" s="34"/>
       <c r="L42" s="10"/>
       <c r="M42" s="10"/>
       <c r="N42" s="10"/>
@@ -3736,7 +3784,7 @@
       <c r="AH42" s="10"/>
     </row>
     <row r="43" spans="1:34" ht="14.25" customHeight="1">
-      <c r="A43" s="46"/>
+      <c r="A43" s="49"/>
       <c r="B43" s="4">
         <v>44655</v>
       </c>
@@ -3746,17 +3794,17 @@
       <c r="D43" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="E43" s="57" t="s">
+      <c r="E43" s="44" t="s">
         <v>162</v>
       </c>
       <c r="F43" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="G43" s="46"/>
-      <c r="H43" s="42"/>
-      <c r="I43" s="50"/>
-      <c r="J43" s="50"/>
-      <c r="K43" s="41"/>
+      <c r="G43" s="49"/>
+      <c r="H43" s="55"/>
+      <c r="I43" s="38"/>
+      <c r="J43" s="38"/>
+      <c r="K43" s="34"/>
       <c r="L43" s="10"/>
       <c r="M43" s="10"/>
       <c r="N43" s="10"/>
@@ -3774,7 +3822,7 @@
       <c r="Z43" s="10"/>
     </row>
     <row r="44" spans="1:34" ht="14.25" customHeight="1">
-      <c r="A44" s="46"/>
+      <c r="A44" s="49"/>
       <c r="B44" s="4">
         <v>44656</v>
       </c>
@@ -3784,17 +3832,17 @@
       <c r="D44" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="E44" s="57" t="s">
+      <c r="E44" s="44" t="s">
         <v>166</v>
       </c>
       <c r="F44" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="G44" s="46"/>
-      <c r="H44" s="42"/>
-      <c r="I44" s="50"/>
-      <c r="J44" s="50"/>
-      <c r="K44" s="41"/>
+      <c r="G44" s="49"/>
+      <c r="H44" s="55"/>
+      <c r="I44" s="38"/>
+      <c r="J44" s="38"/>
+      <c r="K44" s="34"/>
       <c r="L44" s="10"/>
       <c r="M44" s="10"/>
       <c r="N44" s="10"/>
@@ -3812,27 +3860,27 @@
       <c r="Z44" s="10"/>
     </row>
     <row r="45" spans="1:34" ht="14.25" customHeight="1">
-      <c r="A45" s="47"/>
-      <c r="B45" s="51">
+      <c r="A45" s="51"/>
+      <c r="B45" s="39">
         <v>44657</v>
       </c>
-      <c r="C45" s="52" t="s">
+      <c r="C45" s="40" t="s">
         <v>168</v>
       </c>
       <c r="D45" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="E45" s="57" t="s">
+      <c r="E45" s="44" t="s">
         <v>170</v>
       </c>
       <c r="F45" s="26" t="s">
         <v>171</v>
       </c>
-      <c r="G45" s="47"/>
-      <c r="H45" s="45"/>
-      <c r="I45" s="50"/>
-      <c r="J45" s="50"/>
-      <c r="K45" s="41"/>
+      <c r="G45" s="51"/>
+      <c r="H45" s="56"/>
+      <c r="I45" s="38"/>
+      <c r="J45" s="38"/>
+      <c r="K45" s="34"/>
       <c r="L45" s="10"/>
       <c r="M45" s="10"/>
       <c r="N45" s="10"/>
@@ -3850,7 +3898,7 @@
       <c r="Z45" s="10"/>
     </row>
     <row r="46" spans="1:34" ht="14.25" customHeight="1">
-      <c r="A46" s="34" t="s">
+      <c r="A46" s="58" t="s">
         <v>172</v>
       </c>
       <c r="B46" s="4" t="s">
@@ -3876,7 +3924,7 @@
       </c>
       <c r="I46" s="20"/>
       <c r="J46" s="21"/>
-      <c r="K46" s="41"/>
+      <c r="K46" s="34"/>
       <c r="L46" s="10"/>
       <c r="M46" s="10"/>
       <c r="N46" s="10"/>
@@ -3902,7 +3950,7 @@
       <c r="AH46" s="10"/>
     </row>
     <row r="47" spans="1:34" ht="14.25" customHeight="1">
-      <c r="A47" s="42"/>
+      <c r="A47" s="55"/>
       <c r="B47" s="4" t="s">
         <v>179</v>
       </c>
@@ -3926,7 +3974,7 @@
       </c>
       <c r="I47" s="20"/>
       <c r="J47" s="21"/>
-      <c r="K47" s="41"/>
+      <c r="K47" s="34"/>
       <c r="L47" s="10"/>
       <c r="M47" s="10"/>
       <c r="N47" s="10"/>
@@ -3952,7 +4000,7 @@
       <c r="AH47" s="10"/>
     </row>
     <row r="48" spans="1:34" ht="14.25" customHeight="1">
-      <c r="A48" s="42"/>
+      <c r="A48" s="55"/>
       <c r="B48" s="4" t="s">
         <v>185</v>
       </c>
@@ -3976,7 +4024,7 @@
       </c>
       <c r="I48" s="20"/>
       <c r="J48" s="21"/>
-      <c r="K48" s="41"/>
+      <c r="K48" s="34"/>
       <c r="L48" s="10"/>
       <c r="M48" s="10"/>
       <c r="N48" s="10"/>
@@ -4002,7 +4050,7 @@
       <c r="AH48" s="10"/>
     </row>
     <row r="49" spans="1:34" ht="14.25" customHeight="1">
-      <c r="A49" s="34" t="s">
+      <c r="A49" s="58" t="s">
         <v>189</v>
       </c>
       <c r="B49" s="4" t="s">
@@ -4028,7 +4076,7 @@
       </c>
       <c r="I49" s="20"/>
       <c r="J49" s="21"/>
-      <c r="K49" s="41"/>
+      <c r="K49" s="34"/>
       <c r="L49" s="10"/>
       <c r="M49" s="10"/>
       <c r="N49" s="10"/>
@@ -4054,7 +4102,7 @@
       <c r="AH49" s="10"/>
     </row>
     <row r="50" spans="1:34" ht="14.25" customHeight="1">
-      <c r="A50" s="42"/>
+      <c r="A50" s="55"/>
       <c r="B50" s="4" t="s">
         <v>194</v>
       </c>
@@ -4078,7 +4126,7 @@
       </c>
       <c r="I50" s="20"/>
       <c r="J50" s="21"/>
-      <c r="K50" s="41"/>
+      <c r="K50" s="34"/>
       <c r="L50" s="10"/>
       <c r="M50" s="10"/>
       <c r="N50" s="10"/>
@@ -4104,7 +4152,7 @@
       <c r="AH50" s="10"/>
     </row>
     <row r="51" spans="1:34" ht="14.25" customHeight="1">
-      <c r="A51" s="42"/>
+      <c r="A51" s="55"/>
       <c r="B51" s="4" t="s">
         <v>197</v>
       </c>
@@ -4128,7 +4176,7 @@
       </c>
       <c r="I51" s="20"/>
       <c r="J51" s="21"/>
-      <c r="K51" s="41"/>
+      <c r="K51" s="34"/>
       <c r="L51" s="10"/>
       <c r="M51" s="10"/>
       <c r="N51" s="10"/>
@@ -4154,7 +4202,7 @@
       <c r="AH51" s="10"/>
     </row>
     <row r="52" spans="1:34" ht="14.25" customHeight="1">
-      <c r="A52" s="42"/>
+      <c r="A52" s="55"/>
       <c r="B52" s="4" t="s">
         <v>200</v>
       </c>
@@ -4178,7 +4226,7 @@
       </c>
       <c r="I52" s="20"/>
       <c r="J52" s="21"/>
-      <c r="K52" s="41"/>
+      <c r="K52" s="34"/>
       <c r="L52" s="10"/>
       <c r="M52" s="10"/>
       <c r="N52" s="10"/>
@@ -4204,7 +4252,7 @@
       <c r="AH52" s="10"/>
     </row>
     <row r="53" spans="1:34" ht="14.25" customHeight="1">
-      <c r="A53" s="45"/>
+      <c r="A53" s="56"/>
       <c r="B53" s="4" t="s">
         <v>203</v>
       </c>
@@ -4228,7 +4276,7 @@
       </c>
       <c r="I53" s="20"/>
       <c r="J53" s="21"/>
-      <c r="K53" s="41"/>
+      <c r="K53" s="34"/>
       <c r="L53" s="10"/>
       <c r="M53" s="10"/>
       <c r="N53" s="10"/>
@@ -4254,7 +4302,7 @@
       <c r="AH53" s="10"/>
     </row>
     <row r="54" spans="1:34" ht="14.25" customHeight="1">
-      <c r="A54" s="53" t="s">
+      <c r="A54" s="59" t="s">
         <v>205</v>
       </c>
       <c r="B54" s="4" t="s">
@@ -4280,7 +4328,7 @@
       </c>
       <c r="I54" s="20"/>
       <c r="J54" s="21"/>
-      <c r="K54" s="41"/>
+      <c r="K54" s="34"/>
       <c r="L54" s="10"/>
       <c r="M54" s="10"/>
       <c r="N54" s="10"/>
@@ -4306,7 +4354,7 @@
       <c r="AH54" s="10"/>
     </row>
     <row r="55" spans="1:34" ht="14.25" customHeight="1">
-      <c r="A55" s="46"/>
+      <c r="A55" s="49"/>
       <c r="B55" s="4" t="s">
         <v>209</v>
       </c>
@@ -4330,7 +4378,7 @@
       </c>
       <c r="I55" s="20"/>
       <c r="J55" s="21"/>
-      <c r="K55" s="41"/>
+      <c r="K55" s="34"/>
       <c r="L55" s="10"/>
       <c r="M55" s="10"/>
       <c r="N55" s="10"/>
@@ -4356,7 +4404,7 @@
       <c r="AH55" s="10"/>
     </row>
     <row r="56" spans="1:34" ht="14.25" customHeight="1">
-      <c r="A56" s="47"/>
+      <c r="A56" s="51"/>
       <c r="B56" s="4" t="s">
         <v>212</v>
       </c>
@@ -4380,7 +4428,7 @@
       </c>
       <c r="I56" s="20"/>
       <c r="J56" s="21"/>
-      <c r="K56" s="41"/>
+      <c r="K56" s="34"/>
       <c r="L56" s="10"/>
       <c r="M56" s="10"/>
       <c r="N56" s="10"/>
@@ -4406,7 +4454,7 @@
       <c r="AH56" s="10"/>
     </row>
     <row r="57" spans="1:34" ht="14.25" customHeight="1">
-      <c r="A57" s="53" t="s">
+      <c r="A57" s="59" t="s">
         <v>214</v>
       </c>
       <c r="B57" s="4" t="s">
@@ -4421,7 +4469,7 @@
       <c r="E57" s="24" t="s">
         <v>217</v>
       </c>
-      <c r="F57" s="6" t="s">
+      <c r="F57" s="61" t="s">
         <v>218</v>
       </c>
       <c r="G57" s="7" t="s">
@@ -4432,7 +4480,7 @@
       </c>
       <c r="I57" s="20"/>
       <c r="J57" s="21"/>
-      <c r="K57" s="41"/>
+      <c r="K57" s="34"/>
       <c r="L57" s="10"/>
       <c r="M57" s="10"/>
       <c r="N57" s="10"/>
@@ -4458,7 +4506,7 @@
       <c r="AH57" s="10"/>
     </row>
     <row r="58" spans="1:34" ht="14.25" customHeight="1">
-      <c r="A58" s="46"/>
+      <c r="A58" s="49"/>
       <c r="B58" s="4" t="s">
         <v>219</v>
       </c>
@@ -4478,7 +4526,7 @@
       </c>
       <c r="I58" s="20"/>
       <c r="J58" s="21"/>
-      <c r="K58" s="41"/>
+      <c r="K58" s="34"/>
       <c r="L58" s="10"/>
       <c r="M58" s="10"/>
       <c r="N58" s="10"/>
@@ -4504,7 +4552,7 @@
       <c r="AH58" s="10"/>
     </row>
     <row r="59" spans="1:34" ht="14.25" customHeight="1">
-      <c r="A59" s="46"/>
+      <c r="A59" s="49"/>
       <c r="B59" s="4" t="s">
         <v>223</v>
       </c>
@@ -4524,7 +4572,7 @@
       </c>
       <c r="I59" s="20"/>
       <c r="J59" s="21"/>
-      <c r="K59" s="41"/>
+      <c r="K59" s="34"/>
       <c r="L59" s="10"/>
       <c r="M59" s="10"/>
       <c r="N59" s="10"/>
@@ -4550,7 +4598,7 @@
       <c r="AH59" s="10"/>
     </row>
     <row r="60" spans="1:34" ht="14.25" customHeight="1">
-      <c r="A60" s="47"/>
+      <c r="A60" s="51"/>
       <c r="B60" s="4" t="s">
         <v>227</v>
       </c>
@@ -4574,7 +4622,7 @@
       </c>
       <c r="I60" s="20"/>
       <c r="J60" s="21"/>
-      <c r="K60" s="41"/>
+      <c r="K60" s="34"/>
       <c r="L60" s="10"/>
       <c r="M60" s="10"/>
       <c r="N60" s="10"/>
@@ -4600,7 +4648,7 @@
       <c r="AH60" s="10"/>
     </row>
     <row r="61" spans="1:34" ht="14.25" customHeight="1">
-      <c r="A61" s="32" t="s">
+      <c r="A61" s="60" t="s">
         <v>233</v>
       </c>
       <c r="B61" s="4" t="s">
@@ -4626,10 +4674,10 @@
       </c>
       <c r="I61" s="20"/>
       <c r="J61" s="21"/>
-      <c r="K61" s="40"/>
+      <c r="K61" s="33"/>
     </row>
     <row r="62" spans="1:34" ht="14.25" customHeight="1">
-      <c r="A62" s="42"/>
+      <c r="A62" s="55"/>
       <c r="B62" s="4" t="s">
         <v>238</v>
       </c>
@@ -4639,7 +4687,7 @@
       <c r="D62" s="25" t="s">
         <v>240</v>
       </c>
-      <c r="E62" s="59" t="s">
+      <c r="E62" s="46" t="s">
         <v>241</v>
       </c>
       <c r="F62" s="6" t="s">
@@ -4653,10 +4701,10 @@
       </c>
       <c r="I62" s="13"/>
       <c r="J62" s="13"/>
-      <c r="K62" s="40"/>
+      <c r="K62" s="33"/>
     </row>
     <row r="63" spans="1:34" ht="14.25" customHeight="1">
-      <c r="A63" s="42"/>
+      <c r="A63" s="55"/>
       <c r="B63" s="4" t="s">
         <v>244</v>
       </c>
@@ -4666,7 +4714,7 @@
       <c r="D63" s="25" t="s">
         <v>245</v>
       </c>
-      <c r="E63" s="57" t="s">
+      <c r="E63" s="44" t="s">
         <v>246</v>
       </c>
       <c r="F63" s="6" t="s">
@@ -4680,10 +4728,10 @@
       </c>
       <c r="I63" s="13"/>
       <c r="J63" s="13"/>
-      <c r="K63" s="40"/>
+      <c r="K63" s="33"/>
     </row>
     <row r="64" spans="1:34" ht="14.25" customHeight="1">
-      <c r="A64" s="45"/>
+      <c r="A64" s="56"/>
       <c r="B64" s="4" t="s">
         <v>249</v>
       </c>
@@ -4693,7 +4741,7 @@
       <c r="D64" s="25" t="s">
         <v>251</v>
       </c>
-      <c r="E64" s="57" t="s">
+      <c r="E64" s="44" t="s">
         <v>252</v>
       </c>
       <c r="F64" s="6"/>
@@ -4705,10 +4753,10 @@
       </c>
       <c r="I64" s="13"/>
       <c r="J64" s="13"/>
-      <c r="K64" s="40"/>
+      <c r="K64" s="33"/>
     </row>
     <row r="65" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A65" s="33" t="s">
+      <c r="A65" s="57" t="s">
         <v>254</v>
       </c>
       <c r="B65" s="4" t="s">
@@ -4720,7 +4768,7 @@
       <c r="D65" s="25" t="s">
         <v>256</v>
       </c>
-      <c r="E65" s="57" t="s">
+      <c r="E65" s="44" t="s">
         <v>257</v>
       </c>
       <c r="F65" s="6"/>
@@ -4732,10 +4780,10 @@
       </c>
       <c r="I65" s="13"/>
       <c r="J65" s="13"/>
-      <c r="K65" s="40"/>
+      <c r="K65" s="33"/>
     </row>
     <row r="66" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A66" s="42"/>
+      <c r="A66" s="55"/>
       <c r="B66" s="4" t="s">
         <v>259</v>
       </c>
@@ -4745,7 +4793,7 @@
       <c r="D66" s="25" t="s">
         <v>251</v>
       </c>
-      <c r="E66" s="57" t="s">
+      <c r="E66" s="44" t="s">
         <v>261</v>
       </c>
       <c r="F66" s="6"/>
@@ -4757,10 +4805,10 @@
       </c>
       <c r="I66" s="13"/>
       <c r="J66" s="13"/>
-      <c r="K66" s="40"/>
+      <c r="K66" s="33"/>
     </row>
     <row r="67" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A67" s="42"/>
+      <c r="A67" s="55"/>
       <c r="B67" s="4" t="s">
         <v>263</v>
       </c>
@@ -4770,7 +4818,7 @@
       <c r="D67" s="25" t="s">
         <v>256</v>
       </c>
-      <c r="E67" s="57" t="s">
+      <c r="E67" s="44" t="s">
         <v>264</v>
       </c>
       <c r="F67" s="6"/>
@@ -4782,10 +4830,10 @@
       </c>
       <c r="I67" s="13"/>
       <c r="J67" s="13"/>
-      <c r="K67" s="40"/>
+      <c r="K67" s="33"/>
     </row>
     <row r="68" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A68" s="42"/>
+      <c r="A68" s="55"/>
       <c r="B68" s="4" t="s">
         <v>266</v>
       </c>
@@ -4795,7 +4843,7 @@
       <c r="D68" s="25" t="s">
         <v>251</v>
       </c>
-      <c r="E68" s="57" t="s">
+      <c r="E68" s="44" t="s">
         <v>268</v>
       </c>
       <c r="F68" s="6"/>
@@ -4807,10 +4855,10 @@
       </c>
       <c r="I68" s="13"/>
       <c r="J68" s="13"/>
-      <c r="K68" s="40"/>
+      <c r="K68" s="33"/>
     </row>
     <row r="69" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A69" s="42"/>
+      <c r="A69" s="55"/>
       <c r="B69" s="4" t="s">
         <v>270</v>
       </c>
@@ -4820,7 +4868,7 @@
       <c r="D69" s="25" t="s">
         <v>256</v>
       </c>
-      <c r="E69" s="60" t="s">
+      <c r="E69" s="47" t="s">
         <v>271</v>
       </c>
       <c r="F69" s="6"/>
@@ -4832,10 +4880,10 @@
       </c>
       <c r="I69" s="13"/>
       <c r="J69" s="13"/>
-      <c r="K69" s="40"/>
+      <c r="K69" s="33"/>
     </row>
     <row r="70" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A70" s="42"/>
+      <c r="A70" s="55"/>
       <c r="B70" s="4" t="s">
         <v>273</v>
       </c>
@@ -4845,7 +4893,7 @@
       <c r="D70" s="25" t="s">
         <v>275</v>
       </c>
-      <c r="E70" s="57" t="s">
+      <c r="E70" s="44" t="s">
         <v>276</v>
       </c>
       <c r="F70" s="6" t="s">
@@ -4857,12 +4905,12 @@
       <c r="H70" s="25">
         <v>201</v>
       </c>
-      <c r="I70" s="54"/>
-      <c r="J70" s="54"/>
-      <c r="K70" s="40"/>
+      <c r="I70" s="41"/>
+      <c r="J70" s="41"/>
+      <c r="K70" s="33"/>
     </row>
     <row r="71" spans="1:11" ht="42.75" customHeight="1">
-      <c r="A71" s="45"/>
+      <c r="A71" s="56"/>
       <c r="B71" s="4" t="s">
         <v>279</v>
       </c>
@@ -4884,12 +4932,12 @@
       <c r="H71" s="25">
         <v>400</v>
       </c>
-      <c r="I71" s="54"/>
-      <c r="J71" s="54"/>
-      <c r="K71" s="40"/>
+      <c r="I71" s="41"/>
+      <c r="J71" s="41"/>
+      <c r="K71" s="33"/>
     </row>
     <row r="72" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A72" s="34" t="s">
+      <c r="A72" s="58" t="s">
         <v>284</v>
       </c>
       <c r="B72" s="4" t="s">
@@ -4901,7 +4949,7 @@
       <c r="D72" s="25" t="s">
         <v>287</v>
       </c>
-      <c r="E72" s="57" t="s">
+      <c r="E72" s="44" t="s">
         <v>288</v>
       </c>
       <c r="F72" s="6" t="s">
@@ -4913,12 +4961,12 @@
       <c r="H72" s="25">
         <v>200</v>
       </c>
-      <c r="I72" s="54"/>
-      <c r="J72" s="54"/>
-      <c r="K72" s="40"/>
+      <c r="I72" s="41"/>
+      <c r="J72" s="41"/>
+      <c r="K72" s="33"/>
     </row>
     <row r="73" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A73" s="42"/>
+      <c r="A73" s="55"/>
       <c r="B73" s="4" t="s">
         <v>291</v>
       </c>
@@ -4928,7 +4976,7 @@
       <c r="D73" s="25" t="s">
         <v>292</v>
       </c>
-      <c r="E73" s="57" t="s">
+      <c r="E73" s="44" t="s">
         <v>293</v>
       </c>
       <c r="F73" s="6" t="s">
@@ -4940,12 +4988,12 @@
       <c r="H73" s="25">
         <v>400</v>
       </c>
-      <c r="I73" s="54"/>
-      <c r="J73" s="54"/>
-      <c r="K73" s="40"/>
+      <c r="I73" s="41"/>
+      <c r="J73" s="41"/>
+      <c r="K73" s="33"/>
     </row>
     <row r="74" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A74" s="45"/>
+      <c r="A74" s="56"/>
       <c r="B74" s="4" t="s">
         <v>295</v>
       </c>
@@ -4955,7 +5003,7 @@
       <c r="D74" s="25" t="s">
         <v>296</v>
       </c>
-      <c r="E74" s="60" t="s">
+      <c r="E74" s="47" t="s">
         <v>297</v>
       </c>
       <c r="F74" s="6" t="s">
@@ -4967,12 +5015,12 @@
       <c r="H74" s="25">
         <v>400</v>
       </c>
-      <c r="I74" s="54"/>
-      <c r="J74" s="54"/>
-      <c r="K74" s="40"/>
-    </row>
-    <row r="75" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A75" s="55" t="s">
+      <c r="I74" s="41"/>
+      <c r="J74" s="41"/>
+      <c r="K74" s="33"/>
+    </row>
+    <row r="75" spans="1:11" ht="28.8">
+      <c r="A75" s="42" t="s">
         <v>299</v>
       </c>
       <c r="B75" s="4" t="s">
@@ -4984,7 +5032,7 @@
       <c r="D75" s="25" t="s">
         <v>301</v>
       </c>
-      <c r="E75" s="57" t="s">
+      <c r="E75" s="44" t="s">
         <v>302</v>
       </c>
       <c r="F75" s="6" t="s">
@@ -4996,12 +5044,12 @@
       <c r="H75" s="25">
         <v>200</v>
       </c>
-      <c r="I75" s="54"/>
-      <c r="J75" s="54"/>
-      <c r="K75" s="40"/>
+      <c r="I75" s="41"/>
+      <c r="J75" s="41"/>
+      <c r="K75" s="33"/>
     </row>
     <row r="76" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A76" s="54" t="s">
+      <c r="A76" s="41" t="s">
         <v>305</v>
       </c>
       <c r="B76" s="4" t="s">
@@ -5013,7 +5061,7 @@
       <c r="D76" s="25" t="s">
         <v>308</v>
       </c>
-      <c r="E76" s="57" t="s">
+      <c r="E76" s="44" t="s">
         <v>309</v>
       </c>
       <c r="F76" s="6" t="s">
@@ -5025,63 +5073,78 @@
       <c r="H76" s="25">
         <v>200</v>
       </c>
-      <c r="I76" s="54"/>
-      <c r="J76" s="54"/>
-      <c r="K76" s="40"/>
+      <c r="I76" s="41"/>
+      <c r="J76" s="41"/>
+      <c r="K76" s="33"/>
     </row>
     <row r="77" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A77" s="40"/>
-      <c r="B77" s="40"/>
-      <c r="C77" s="39"/>
-      <c r="D77" s="39"/>
-      <c r="E77" s="39"/>
-      <c r="F77" s="40"/>
-      <c r="G77" s="40"/>
-      <c r="H77" s="40"/>
-      <c r="I77" s="40"/>
-      <c r="J77" s="40"/>
-      <c r="K77" s="40"/>
+      <c r="A77" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="E77" s="63" t="s">
+        <v>318</v>
+      </c>
+      <c r="F77" s="62" t="s">
+        <v>316</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="H77" s="64">
+        <v>400</v>
+      </c>
+      <c r="I77" s="4"/>
+      <c r="J77" s="4"/>
+      <c r="K77" s="33"/>
     </row>
     <row r="78" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A78" s="40"/>
-      <c r="B78" s="40"/>
-      <c r="C78" s="39"/>
-      <c r="D78" s="39"/>
-      <c r="E78" s="39"/>
-      <c r="F78" s="40"/>
-      <c r="G78" s="40"/>
-      <c r="H78" s="40"/>
-      <c r="I78" s="40"/>
-      <c r="J78" s="40"/>
-      <c r="K78" s="40"/>
+      <c r="A78" s="33"/>
+      <c r="B78" s="33"/>
+      <c r="C78" s="32"/>
+      <c r="D78" s="32"/>
+      <c r="F78" s="33"/>
+      <c r="G78" s="33"/>
+      <c r="H78" s="33"/>
+      <c r="I78" s="33"/>
+      <c r="J78" s="33"/>
+      <c r="K78" s="33"/>
     </row>
     <row r="79" spans="1:11" ht="14.25" customHeight="1">
-      <c r="A79" s="40"/>
-      <c r="B79" s="40"/>
-      <c r="C79" s="39"/>
-      <c r="D79" s="39"/>
-      <c r="E79" s="39"/>
-      <c r="F79" s="40"/>
-      <c r="G79" s="40"/>
-      <c r="H79" s="40"/>
-      <c r="I79" s="40"/>
-      <c r="J79" s="40"/>
-      <c r="K79" s="40"/>
+      <c r="A79" s="33"/>
+      <c r="B79" s="33"/>
+      <c r="C79" s="32"/>
+      <c r="D79" s="32"/>
+      <c r="E79" s="32"/>
+      <c r="F79" s="33"/>
+      <c r="G79" s="33"/>
+      <c r="H79" s="33"/>
+      <c r="I79" s="33"/>
+      <c r="J79" s="33"/>
+      <c r="K79" s="33"/>
     </row>
     <row r="80" spans="1:11" ht="14.25" customHeight="1">
       <c r="C80" s="30"/>
       <c r="D80" s="30"/>
-      <c r="E80" s="39"/>
+      <c r="E80" s="32"/>
     </row>
     <row r="81" spans="2:5" ht="14.25" customHeight="1">
       <c r="C81" s="30"/>
       <c r="D81" s="30"/>
-      <c r="E81" s="39"/>
+      <c r="E81" s="32"/>
     </row>
     <row r="82" spans="2:5" ht="14.25" customHeight="1">
       <c r="C82" s="30"/>
       <c r="D82" s="30"/>
-      <c r="E82" s="39"/>
+      <c r="E82" s="32"/>
     </row>
     <row r="83" spans="2:5" ht="14.25" customHeight="1">
       <c r="B83" s="31"/>
@@ -9667,11 +9730,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B38:C39"/>
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="G40:G45"/>
-    <mergeCell ref="H40:H45"/>
-    <mergeCell ref="A65:A71"/>
     <mergeCell ref="A72:A74"/>
     <mergeCell ref="A2:A32"/>
     <mergeCell ref="A33:A35"/>
@@ -9681,8 +9739,13 @@
     <mergeCell ref="A54:A56"/>
     <mergeCell ref="A57:A60"/>
     <mergeCell ref="A61:A64"/>
+    <mergeCell ref="B38:C39"/>
+    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="G40:G45"/>
+    <mergeCell ref="H40:H45"/>
+    <mergeCell ref="A65:A71"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>